--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>255.782117949061</v>
+        <v>255.961578</v>
       </c>
       <c r="H2">
-        <v>255.782117949061</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I2">
-        <v>0.4408873835479196</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J2">
-        <v>0.4408873835479196</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.896208601715</v>
+        <v>6.9164455</v>
       </c>
       <c r="N2">
-        <v>6.896208601715</v>
+        <v>13.832891</v>
       </c>
       <c r="O2">
-        <v>0.6021009896685757</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P2">
-        <v>0.6021009896685757</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q2">
-        <v>1763.926841965195</v>
+        <v>1770.344304330999</v>
       </c>
       <c r="R2">
-        <v>1763.926841965195</v>
+        <v>7081.377217323995</v>
       </c>
       <c r="S2">
-        <v>0.2654587299665913</v>
+        <v>0.253729310457894</v>
       </c>
       <c r="T2">
-        <v>0.2654587299665913</v>
+        <v>0.1806787092606701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>255.782117949061</v>
+        <v>255.961578</v>
       </c>
       <c r="H3">
-        <v>255.782117949061</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I3">
-        <v>0.4408873835479196</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J3">
-        <v>0.4408873835479196</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8372639326572699</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N3">
-        <v>0.8372639326572699</v>
+        <v>2.802176</v>
       </c>
       <c r="O3">
-        <v>0.07310066611694117</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P3">
-        <v>0.07310066611694117</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q3">
-        <v>214.1571419774365</v>
+        <v>239.083130264576</v>
       </c>
       <c r="R3">
-        <v>214.1571419774365</v>
+        <v>1434.498781587456</v>
       </c>
       <c r="S3">
-        <v>0.03222916141990825</v>
+        <v>0.03426587564675428</v>
       </c>
       <c r="T3">
-        <v>0.03222916141990825</v>
+        <v>0.03660070355511569</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>255.782117949061</v>
+        <v>255.961578</v>
       </c>
       <c r="H4">
-        <v>255.782117949061</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I4">
-        <v>0.4408873835479196</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J4">
-        <v>0.4408873835479196</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.6897185454941</v>
+        <v>0.035773</v>
       </c>
       <c r="N4">
-        <v>2.6897185454941</v>
+        <v>0.107319</v>
       </c>
       <c r="O4">
-        <v>0.2348366025020147</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P4">
-        <v>0.2348366025020147</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q4">
-        <v>687.9819062533487</v>
+        <v>9.156513529793999</v>
       </c>
       <c r="R4">
-        <v>687.9819062533487</v>
+        <v>54.93908117876399</v>
       </c>
       <c r="S4">
-        <v>0.1035364952383961</v>
+        <v>0.001312329956624431</v>
       </c>
       <c r="T4">
-        <v>0.1035364952383961</v>
+        <v>0.001401750248675122</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>255.782117949061</v>
+        <v>255.961578</v>
       </c>
       <c r="H5">
-        <v>255.782117949061</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I5">
-        <v>0.4408873835479196</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J5">
-        <v>0.4408873835479196</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.03038351982162</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N5">
-        <v>1.03038351982162</v>
+        <v>0.19391</v>
       </c>
       <c r="O5">
-        <v>0.08996174171246844</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P5">
-        <v>0.08996174171246844</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q5">
-        <v>263.5536789997822</v>
+        <v>16.54450319666</v>
       </c>
       <c r="R5">
-        <v>263.5536789997822</v>
+        <v>99.26701917996</v>
       </c>
       <c r="S5">
-        <v>0.03966299692302395</v>
+        <v>0.002371191512118483</v>
       </c>
       <c r="T5">
-        <v>0.03966299692302395</v>
+        <v>0.002532761120776312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>84.12664679814129</v>
+        <v>255.961578</v>
       </c>
       <c r="H6">
-        <v>84.12664679814129</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I6">
-        <v>0.1450077022228701</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J6">
-        <v>0.1450077022228701</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.896208601715</v>
+        <v>2.689952</v>
       </c>
       <c r="N6">
-        <v>6.896208601715</v>
+        <v>8.069856</v>
       </c>
       <c r="O6">
-        <v>0.6021009896685757</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P6">
-        <v>0.6021009896685757</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q6">
-        <v>580.1549052827817</v>
+        <v>688.5243586642559</v>
       </c>
       <c r="R6">
-        <v>580.1549052827817</v>
+        <v>4131.146151985536</v>
       </c>
       <c r="S6">
-        <v>0.08730928101795624</v>
+        <v>0.098680697494809</v>
       </c>
       <c r="T6">
-        <v>0.08730928101795624</v>
+        <v>0.105404659517629</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>84.12664679814129</v>
+        <v>255.961578</v>
       </c>
       <c r="H7">
-        <v>84.12664679814129</v>
+        <v>511.9231559999999</v>
       </c>
       <c r="I7">
-        <v>0.1450077022228701</v>
+        <v>0.4306976391465507</v>
       </c>
       <c r="J7">
-        <v>0.1450077022228701</v>
+        <v>0.3553431329241539</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8372639326572699</v>
+        <v>1.099586</v>
       </c>
       <c r="N7">
-        <v>0.8372639326572699</v>
+        <v>2.199172</v>
       </c>
       <c r="O7">
-        <v>0.07310066611694117</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P7">
-        <v>0.07310066611694117</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q7">
-        <v>70.43620713948091</v>
+        <v>281.451767706708</v>
       </c>
       <c r="R7">
-        <v>70.43620713948091</v>
+        <v>1125.807070826832</v>
       </c>
       <c r="S7">
-        <v>0.01060015962457886</v>
+        <v>0.04033823407835048</v>
       </c>
       <c r="T7">
-        <v>0.01060015962457886</v>
+        <v>0.02872454922128762</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>84.12664679814129</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H8">
-        <v>84.12664679814129</v>
+        <v>268.695167</v>
       </c>
       <c r="I8">
-        <v>0.1450077022228701</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J8">
-        <v>0.1450077022228701</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.6897185454941</v>
+        <v>6.9164455</v>
       </c>
       <c r="N8">
-        <v>2.6897185454941</v>
+        <v>13.832891</v>
       </c>
       <c r="O8">
-        <v>0.2348366025020147</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P8">
-        <v>0.2348366025020147</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q8">
-        <v>226.2770020631925</v>
+        <v>619.4718262229662</v>
       </c>
       <c r="R8">
-        <v>226.2770020631925</v>
+        <v>3716.830957337797</v>
       </c>
       <c r="S8">
-        <v>0.03405311612664266</v>
+        <v>0.08878394950130457</v>
       </c>
       <c r="T8">
-        <v>0.03405311612664266</v>
+        <v>0.09483356122718586</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>84.12664679814129</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H9">
-        <v>84.12664679814129</v>
+        <v>268.695167</v>
       </c>
       <c r="I9">
-        <v>0.1450077022228701</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J9">
-        <v>0.1450077022228701</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.03038351982162</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N9">
-        <v>1.03038351982162</v>
+        <v>2.802176</v>
       </c>
       <c r="O9">
-        <v>0.08996174171246844</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P9">
-        <v>0.08996174171246844</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q9">
-        <v>86.68271043865904</v>
+        <v>83.65901647593246</v>
       </c>
       <c r="R9">
-        <v>86.68271043865904</v>
+        <v>752.9311482833922</v>
       </c>
       <c r="S9">
-        <v>0.01304514545369238</v>
+        <v>0.01199017869693171</v>
       </c>
       <c r="T9">
-        <v>0.01304514545369238</v>
+        <v>0.01921075856560648</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.106022765465081</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H10">
-        <v>0.106022765465081</v>
+        <v>268.695167</v>
       </c>
       <c r="I10">
-        <v>0.0001827496778790587</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J10">
-        <v>0.0001827496778790587</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>6.896208601715</v>
+        <v>0.035773</v>
       </c>
       <c r="N10">
-        <v>6.896208601715</v>
+        <v>0.107319</v>
       </c>
       <c r="O10">
-        <v>0.6021009896685757</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P10">
-        <v>0.6021009896685757</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q10">
-        <v>0.7311551071779037</v>
+        <v>3.204010736363667</v>
       </c>
       <c r="R10">
-        <v>0.7311551071779037</v>
+        <v>28.836096627273</v>
       </c>
       <c r="S10">
-        <v>0.0001100337619125946</v>
+        <v>0.0004592052703242104</v>
       </c>
       <c r="T10">
-        <v>0.0001100337619125946</v>
+        <v>0.0007357422940251867</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.106022765465081</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H11">
-        <v>0.106022765465081</v>
+        <v>268.695167</v>
       </c>
       <c r="I11">
-        <v>0.0001827496778790587</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J11">
-        <v>0.0001827496778790587</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.8372639326572699</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N11">
-        <v>0.8372639326572699</v>
+        <v>0.19391</v>
       </c>
       <c r="O11">
-        <v>0.07310066611694117</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P11">
-        <v>0.07310066611694117</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q11">
-        <v>0.08876903756449311</v>
+        <v>5.78918664810778</v>
       </c>
       <c r="R11">
-        <v>0.08876903756449311</v>
+        <v>52.10267983297001</v>
       </c>
       <c r="S11">
-        <v>1.335912318561562E-05</v>
+        <v>0.0008297178874995822</v>
       </c>
       <c r="T11">
-        <v>1.335912318561562E-05</v>
+        <v>0.001329380521943216</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.106022765465081</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H12">
-        <v>0.106022765465081</v>
+        <v>268.695167</v>
       </c>
       <c r="I12">
-        <v>0.0001827496778790587</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J12">
-        <v>0.0001827496778790587</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.6897185454941</v>
+        <v>2.689952</v>
       </c>
       <c r="N12">
-        <v>2.6897185454941</v>
+        <v>8.069856</v>
       </c>
       <c r="O12">
-        <v>0.2348366025020147</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P12">
-        <v>0.2348366025020147</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q12">
-        <v>0.2851713985159998</v>
+        <v>240.9257006206614</v>
       </c>
       <c r="R12">
-        <v>0.2851713985159998</v>
+        <v>2168.331305585952</v>
       </c>
       <c r="S12">
-        <v>4.291631346145572E-05</v>
+        <v>0.03452995654038382</v>
       </c>
       <c r="T12">
-        <v>4.291631346145572E-05</v>
+        <v>0.05532416781644366</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.106022765465081</v>
+        <v>89.56505566666668</v>
       </c>
       <c r="H13">
-        <v>0.106022765465081</v>
+        <v>268.695167</v>
       </c>
       <c r="I13">
-        <v>0.0001827496778790587</v>
+        <v>0.1507080020645237</v>
       </c>
       <c r="J13">
-        <v>0.0001827496778790587</v>
+        <v>0.1865103801699463</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.03038351982162</v>
+        <v>1.099586</v>
       </c>
       <c r="N13">
-        <v>1.03038351982162</v>
+        <v>2.199172</v>
       </c>
       <c r="O13">
-        <v>0.08996174171246844</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P13">
-        <v>0.08996174171246844</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q13">
-        <v>0.1092441102611323</v>
+        <v>98.48448130028734</v>
       </c>
       <c r="R13">
-        <v>0.1092441102611323</v>
+        <v>590.906887801724</v>
       </c>
       <c r="S13">
-        <v>1.644047931939268E-05</v>
+        <v>0.01411499416807976</v>
       </c>
       <c r="T13">
-        <v>1.644047931939268E-05</v>
+        <v>0.01507676974474192</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.232009818709494</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H14">
-        <v>0.232009818709494</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I14">
-        <v>0.0003999114666359399</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J14">
-        <v>0.0003999114666359399</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.896208601715</v>
+        <v>6.9164455</v>
       </c>
       <c r="N14">
-        <v>6.896208601715</v>
+        <v>13.832891</v>
       </c>
       <c r="O14">
-        <v>0.6021009896685757</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P14">
-        <v>0.6021009896685757</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q14">
-        <v>1.59998810746675</v>
+        <v>0.9299391522933333</v>
       </c>
       <c r="R14">
-        <v>1.59998810746675</v>
+        <v>5.579634913760001</v>
       </c>
       <c r="S14">
-        <v>0.000240787089841311</v>
+        <v>0.0001332807518299955</v>
       </c>
       <c r="T14">
-        <v>0.000240787089841311</v>
+        <v>0.000142362312220516</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.232009818709494</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H15">
-        <v>0.232009818709494</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I15">
-        <v>0.0003999114666359399</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J15">
-        <v>0.0003999114666359399</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8372639326572699</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N15">
-        <v>0.8372639326572699</v>
+        <v>2.802176</v>
       </c>
       <c r="O15">
-        <v>0.07310066611694117</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P15">
-        <v>0.07310066611694117</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q15">
-        <v>0.1942534532278112</v>
+        <v>0.1255873012622222</v>
       </c>
       <c r="R15">
-        <v>0.1942534532278112</v>
+        <v>1.13028571136</v>
       </c>
       <c r="S15">
-        <v>2.92337945988901E-05</v>
+        <v>1.799942489919953E-05</v>
       </c>
       <c r="T15">
-        <v>2.92337945988901E-05</v>
+        <v>2.883882007086131E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.232009818709494</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H16">
-        <v>0.232009818709494</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I16">
-        <v>0.0003999114666359399</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J16">
-        <v>0.0003999114666359399</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>2.6897185454941</v>
+        <v>0.035773</v>
       </c>
       <c r="N16">
-        <v>2.6897185454941</v>
+        <v>0.107319</v>
       </c>
       <c r="O16">
-        <v>0.2348366025020147</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P16">
-        <v>0.2348366025020147</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q16">
-        <v>0.6240411121196501</v>
+        <v>0.004809799093333333</v>
       </c>
       <c r="R16">
-        <v>0.6240411121196501</v>
+        <v>0.04328819184</v>
       </c>
       <c r="S16">
-        <v>9.391385012638192E-05</v>
+        <v>6.893500910568052E-07</v>
       </c>
       <c r="T16">
-        <v>9.391385012638192E-05</v>
+        <v>1.104482135021057E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.232009818709494</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H17">
-        <v>0.232009818709494</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I17">
-        <v>0.0003999114666359399</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J17">
-        <v>0.0003999114666359399</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.03038351982162</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N17">
-        <v>1.03038351982162</v>
+        <v>0.19391</v>
       </c>
       <c r="O17">
-        <v>0.08996174171246844</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P17">
-        <v>0.08996174171246844</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q17">
-        <v>0.2390590936350644</v>
+        <v>0.008690615288888891</v>
       </c>
       <c r="R17">
-        <v>0.2390590936350644</v>
+        <v>0.07821553760000002</v>
       </c>
       <c r="S17">
-        <v>3.597673206935687E-05</v>
+        <v>1.245556482606297E-06</v>
       </c>
       <c r="T17">
-        <v>3.597673206935687E-05</v>
+        <v>1.995640388020137E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>157.928631555363</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H18">
-        <v>157.928631555363</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I18">
-        <v>0.2722189561649261</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J18">
-        <v>0.2722189561649261</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.896208601715</v>
+        <v>2.689952</v>
       </c>
       <c r="N18">
-        <v>6.896208601715</v>
+        <v>8.069856</v>
       </c>
       <c r="O18">
-        <v>0.6021009896685757</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P18">
-        <v>0.6021009896685757</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q18">
-        <v>1089.108787389173</v>
+        <v>0.3616730129066667</v>
       </c>
       <c r="R18">
-        <v>1089.108787389173</v>
+        <v>3.25505711616</v>
       </c>
       <c r="S18">
-        <v>0.1639033029134487</v>
+        <v>5.183570447372139E-05</v>
       </c>
       <c r="T18">
-        <v>0.1639033029134487</v>
+        <v>8.305157319945661E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>157.928631555363</v>
+        <v>0.1344533333333333</v>
       </c>
       <c r="H19">
-        <v>157.928631555363</v>
+        <v>0.4033600000000001</v>
       </c>
       <c r="I19">
-        <v>0.2722189561649261</v>
+        <v>0.0002262399446609557</v>
       </c>
       <c r="J19">
-        <v>0.2722189561649261</v>
+        <v>0.0002799857838356637</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8372639326572699</v>
+        <v>1.099586</v>
       </c>
       <c r="N19">
-        <v>0.8372639326572699</v>
+        <v>2.199172</v>
       </c>
       <c r="O19">
-        <v>0.07310066611694117</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P19">
-        <v>0.07310066611694117</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q19">
-        <v>132.2279471352242</v>
+        <v>0.1478430029866667</v>
       </c>
       <c r="R19">
-        <v>132.2279471352242</v>
+        <v>0.8870580179200001</v>
       </c>
       <c r="S19">
-        <v>0.01989938702531451</v>
+        <v>2.118915688437616E-05</v>
       </c>
       <c r="T19">
-        <v>0.01989938702531451</v>
+        <v>2.263295582178857E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>157.928631555363</v>
+        <v>0.285862</v>
       </c>
       <c r="H20">
-        <v>157.928631555363</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I20">
-        <v>0.2722189561649261</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J20">
-        <v>0.2722189561649261</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.6897185454941</v>
+        <v>6.9164455</v>
       </c>
       <c r="N20">
-        <v>2.6897185454941</v>
+        <v>13.832891</v>
       </c>
       <c r="O20">
-        <v>0.2348366025020147</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P20">
-        <v>0.2348366025020147</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q20">
-        <v>424.7835691589647</v>
+        <v>1.977148943521</v>
       </c>
       <c r="R20">
-        <v>424.7835691589647</v>
+        <v>11.862893661126</v>
       </c>
       <c r="S20">
-        <v>0.06392697480241612</v>
+        <v>0.0002833689677679456</v>
       </c>
       <c r="T20">
-        <v>0.06392697480241612</v>
+        <v>0.0003026773251882771</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>157.928631555363</v>
+        <v>0.285862</v>
       </c>
       <c r="H21">
-        <v>157.928631555363</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I21">
-        <v>0.2722189561649261</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J21">
-        <v>0.2722189561649261</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.03038351982162</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N21">
-        <v>1.03038351982162</v>
+        <v>2.802176</v>
       </c>
       <c r="O21">
-        <v>0.08996174171246844</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P21">
-        <v>0.08996174171246844</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q21">
-        <v>162.7270592626267</v>
+        <v>0.2670118785706667</v>
       </c>
       <c r="R21">
-        <v>162.7270592626267</v>
+        <v>2.403106907136</v>
       </c>
       <c r="S21">
-        <v>0.02448929142374685</v>
+        <v>3.826868009124585E-05</v>
       </c>
       <c r="T21">
-        <v>0.02448929142374685</v>
+        <v>6.131438008054756E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>81.9775251187139</v>
+        <v>0.285862</v>
       </c>
       <c r="H22">
-        <v>81.9775251187139</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I22">
-        <v>0.1413032969197693</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J22">
-        <v>0.1413032969197693</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>6.896208601715</v>
+        <v>0.035773</v>
       </c>
       <c r="N22">
-        <v>6.896208601715</v>
+        <v>0.107319</v>
       </c>
       <c r="O22">
-        <v>0.6021009896685757</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P22">
-        <v>0.6021009896685757</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q22">
-        <v>565.3341138709823</v>
+        <v>0.010226141326</v>
       </c>
       <c r="R22">
-        <v>565.3341138709823</v>
+        <v>0.092035271934</v>
       </c>
       <c r="S22">
-        <v>0.08507885491882571</v>
+        <v>1.465631166176719E-06</v>
       </c>
       <c r="T22">
-        <v>0.08507885491882571</v>
+        <v>2.348245776091253E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>81.9775251187139</v>
+        <v>0.285862</v>
       </c>
       <c r="H23">
-        <v>81.9775251187139</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I23">
-        <v>0.1413032969197693</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J23">
-        <v>0.1413032969197693</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.8372639326572699</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N23">
-        <v>0.8372639326572699</v>
+        <v>0.19391</v>
       </c>
       <c r="O23">
-        <v>0.07310066611694117</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P23">
-        <v>0.07310066611694117</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q23">
-        <v>68.63682507040453</v>
+        <v>0.01847716680666667</v>
       </c>
       <c r="R23">
-        <v>68.63682507040453</v>
+        <v>0.16629450126</v>
       </c>
       <c r="S23">
-        <v>0.01032936512935506</v>
+        <v>2.648184752311591E-06</v>
       </c>
       <c r="T23">
-        <v>0.01032936512935506</v>
+        <v>4.242942428105507E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>81.9775251187139</v>
+        <v>0.285862</v>
       </c>
       <c r="H24">
-        <v>81.9775251187139</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I24">
-        <v>0.1413032969197693</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J24">
-        <v>0.1413032969197693</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.6897185454941</v>
+        <v>2.689952</v>
       </c>
       <c r="N24">
-        <v>2.6897185454941</v>
+        <v>8.069856</v>
       </c>
       <c r="O24">
-        <v>0.2348366025020147</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P24">
-        <v>0.2348366025020147</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q24">
-        <v>220.4964696255132</v>
+        <v>0.7689550586239999</v>
       </c>
       <c r="R24">
-        <v>220.4964696255132</v>
+        <v>6.920595527616</v>
       </c>
       <c r="S24">
-        <v>0.03318318617097202</v>
+        <v>0.00011020818736811</v>
       </c>
       <c r="T24">
-        <v>0.03318318617097202</v>
+        <v>0.0001765764241715321</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>81.9775251187139</v>
+        <v>0.285862</v>
       </c>
       <c r="H25">
-        <v>81.9775251187139</v>
+        <v>0.8575860000000001</v>
       </c>
       <c r="I25">
-        <v>0.1413032969197693</v>
+        <v>0.0004810100386305295</v>
       </c>
       <c r="J25">
-        <v>0.1413032969197693</v>
+        <v>0.0005952793742971328</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.03038351982162</v>
+        <v>1.099586</v>
       </c>
       <c r="N25">
-        <v>1.03038351982162</v>
+        <v>2.199172</v>
       </c>
       <c r="O25">
-        <v>0.08996174171246844</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P25">
-        <v>0.08996174171246844</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q25">
-        <v>84.4682908780857</v>
+        <v>0.314329853132</v>
       </c>
       <c r="R25">
-        <v>84.4682908780857</v>
+        <v>1.885979118792</v>
       </c>
       <c r="S25">
-        <v>0.01271189070061652</v>
+        <v>4.505038748473971E-05</v>
       </c>
       <c r="T25">
-        <v>0.01271189070061652</v>
+        <v>4.812005665257925E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>162.0686236666667</v>
+      </c>
+      <c r="H26">
+        <v>486.205871</v>
+      </c>
+      <c r="I26">
+        <v>0.2727072326181867</v>
+      </c>
+      <c r="J26">
+        <v>0.3374918978020542</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.9164455</v>
+      </c>
+      <c r="N26">
+        <v>13.832891</v>
+      </c>
+      <c r="O26">
+        <v>0.5891123781422892</v>
+      </c>
+      <c r="P26">
+        <v>0.5084626450322738</v>
+      </c>
+      <c r="Q26">
+        <v>1120.93880285051</v>
+      </c>
+      <c r="R26">
+        <v>6725.632817103061</v>
+      </c>
+      <c r="S26">
+        <v>0.1606552063443024</v>
+      </c>
+      <c r="T26">
+        <v>0.1716020230333943</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>162.0686236666667</v>
+      </c>
+      <c r="H27">
+        <v>486.205871</v>
+      </c>
+      <c r="I27">
+        <v>0.2727072326181867</v>
+      </c>
+      <c r="J27">
+        <v>0.3374918978020542</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.9340586666666667</v>
+      </c>
+      <c r="N27">
+        <v>2.802176</v>
+      </c>
+      <c r="O27">
+        <v>0.07955900504737815</v>
+      </c>
+      <c r="P27">
+        <v>0.1030010155365178</v>
+      </c>
+      <c r="Q27">
+        <v>151.3816025305885</v>
+      </c>
+      <c r="R27">
+        <v>1362.434422775296</v>
+      </c>
+      <c r="S27">
+        <v>0.02169631609632684</v>
+      </c>
+      <c r="T27">
+        <v>0.03476200820895826</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>162.0686236666667</v>
+      </c>
+      <c r="H28">
+        <v>486.205871</v>
+      </c>
+      <c r="I28">
+        <v>0.2727072326181867</v>
+      </c>
+      <c r="J28">
+        <v>0.3374918978020542</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.035773</v>
+      </c>
+      <c r="N28">
+        <v>0.107319</v>
+      </c>
+      <c r="O28">
+        <v>0.003046986649903352</v>
+      </c>
+      <c r="P28">
+        <v>0.003944779338044274</v>
+      </c>
+      <c r="Q28">
+        <v>5.797680874427667</v>
+      </c>
+      <c r="R28">
+        <v>52.179127869849</v>
+      </c>
+      <c r="S28">
+        <v>0.0008309352971197027</v>
+      </c>
+      <c r="T28">
+        <v>0.001331331065206893</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>162.0686236666667</v>
+      </c>
+      <c r="H29">
+        <v>486.205871</v>
+      </c>
+      <c r="I29">
+        <v>0.2727072326181867</v>
+      </c>
+      <c r="J29">
+        <v>0.3374918978020542</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.06463666666666668</v>
+      </c>
+      <c r="N29">
+        <v>0.19391</v>
+      </c>
+      <c r="O29">
+        <v>0.005505466704709875</v>
+      </c>
+      <c r="P29">
+        <v>0.007127648985176579</v>
+      </c>
+      <c r="Q29">
+        <v>10.47557560506778</v>
+      </c>
+      <c r="R29">
+        <v>94.28018044561001</v>
+      </c>
+      <c r="S29">
+        <v>0.001501380589312998</v>
+      </c>
+      <c r="T29">
+        <v>0.002405523782874129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>162.0686236666667</v>
+      </c>
+      <c r="H30">
+        <v>486.205871</v>
+      </c>
+      <c r="I30">
+        <v>0.2727072326181867</v>
+      </c>
+      <c r="J30">
+        <v>0.3374918978020542</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.689952</v>
+      </c>
+      <c r="N30">
+        <v>8.069856</v>
+      </c>
+      <c r="O30">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P30">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q30">
+        <v>435.9568183693973</v>
+      </c>
+      <c r="R30">
+        <v>3923.611365324576</v>
+      </c>
+      <c r="S30">
+        <v>0.06248220905033793</v>
+      </c>
+      <c r="T30">
+        <v>0.1001094865265818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>162.0686236666667</v>
+      </c>
+      <c r="H31">
+        <v>486.205871</v>
+      </c>
+      <c r="I31">
+        <v>0.2727072326181867</v>
+      </c>
+      <c r="J31">
+        <v>0.3374918978020542</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.099586</v>
+      </c>
+      <c r="N31">
+        <v>2.199172</v>
+      </c>
+      <c r="O31">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P31">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q31">
+        <v>178.2083896231353</v>
+      </c>
+      <c r="R31">
+        <v>1069.250337738812</v>
+      </c>
+      <c r="S31">
+        <v>0.02554118524078678</v>
+      </c>
+      <c r="T31">
+        <v>0.02728152518503875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>86.27971650000001</v>
+      </c>
+      <c r="H32">
+        <v>172.559433</v>
+      </c>
+      <c r="I32">
+        <v>0.1451798761874476</v>
+      </c>
+      <c r="J32">
+        <v>0.1197793239457127</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.9164455</v>
+      </c>
+      <c r="N32">
+        <v>13.832891</v>
+      </c>
+      <c r="O32">
+        <v>0.5891123781422892</v>
+      </c>
+      <c r="P32">
+        <v>0.5084626450322738</v>
+      </c>
+      <c r="Q32">
+        <v>596.7489569277008</v>
+      </c>
+      <c r="R32">
+        <v>2386.995827710803</v>
+      </c>
+      <c r="S32">
+        <v>0.08552726211919034</v>
+      </c>
+      <c r="T32">
+        <v>0.06090331187361467</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>86.27971650000001</v>
+      </c>
+      <c r="H33">
+        <v>172.559433</v>
+      </c>
+      <c r="I33">
+        <v>0.1451798761874476</v>
+      </c>
+      <c r="J33">
+        <v>0.1197793239457127</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.9340586666666667</v>
+      </c>
+      <c r="N33">
+        <v>2.802176</v>
+      </c>
+      <c r="O33">
+        <v>0.07955900504737815</v>
+      </c>
+      <c r="P33">
+        <v>0.1030010155365178</v>
+      </c>
+      <c r="Q33">
+        <v>80.59031695436801</v>
+      </c>
+      <c r="R33">
+        <v>483.5419017262081</v>
+      </c>
+      <c r="S33">
+        <v>0.01155036650237488</v>
+      </c>
+      <c r="T33">
+        <v>0.01233739200668595</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>86.27971650000001</v>
+      </c>
+      <c r="H34">
+        <v>172.559433</v>
+      </c>
+      <c r="I34">
+        <v>0.1451798761874476</v>
+      </c>
+      <c r="J34">
+        <v>0.1197793239457127</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.035773</v>
+      </c>
+      <c r="N34">
+        <v>0.107319</v>
+      </c>
+      <c r="O34">
+        <v>0.003046986649903352</v>
+      </c>
+      <c r="P34">
+        <v>0.003944779338044274</v>
+      </c>
+      <c r="Q34">
+        <v>3.0864842983545</v>
+      </c>
+      <c r="R34">
+        <v>18.518905790127</v>
+      </c>
+      <c r="S34">
+        <v>0.0004423611445777743</v>
+      </c>
+      <c r="T34">
+        <v>0.0004725030022259593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>86.27971650000001</v>
+      </c>
+      <c r="H35">
+        <v>172.559433</v>
+      </c>
+      <c r="I35">
+        <v>0.1451798761874476</v>
+      </c>
+      <c r="J35">
+        <v>0.1197793239457127</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.06463666666666668</v>
+      </c>
+      <c r="N35">
+        <v>0.19391</v>
+      </c>
+      <c r="O35">
+        <v>0.005505466704709875</v>
+      </c>
+      <c r="P35">
+        <v>0.007127648985176579</v>
+      </c>
+      <c r="Q35">
+        <v>5.576833275505001</v>
+      </c>
+      <c r="R35">
+        <v>33.46099965303001</v>
+      </c>
+      <c r="S35">
+        <v>0.0007992829745438947</v>
+      </c>
+      <c r="T35">
+        <v>0.0008537449767667961</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>86.27971650000001</v>
+      </c>
+      <c r="H36">
+        <v>172.559433</v>
+      </c>
+      <c r="I36">
+        <v>0.1451798761874476</v>
+      </c>
+      <c r="J36">
+        <v>0.1197793239457127</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.689952</v>
+      </c>
+      <c r="N36">
+        <v>8.069856</v>
+      </c>
+      <c r="O36">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P36">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q36">
+        <v>232.088295958608</v>
+      </c>
+      <c r="R36">
+        <v>1392.529775751648</v>
+      </c>
+      <c r="S36">
+        <v>0.03326336190924085</v>
+      </c>
+      <c r="T36">
+        <v>0.03552987996096843</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>86.27971650000001</v>
+      </c>
+      <c r="H37">
+        <v>172.559433</v>
+      </c>
+      <c r="I37">
+        <v>0.1451798761874476</v>
+      </c>
+      <c r="J37">
+        <v>0.1197793239457127</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.099586</v>
+      </c>
+      <c r="N37">
+        <v>2.199172</v>
+      </c>
+      <c r="O37">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P37">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q37">
+        <v>94.87196834736901</v>
+      </c>
+      <c r="R37">
+        <v>379.487873389476</v>
+      </c>
+      <c r="S37">
+        <v>0.01359724153751982</v>
+      </c>
+      <c r="T37">
+        <v>0.009682492125450921</v>
       </c>
     </row>
   </sheetData>
